--- a/Caso2/docs/tiempos-y-cpu.xlsx
+++ b/Caso2/docs/tiempos-y-cpu.xlsx
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
-    <t xml:space="preserve">No Prueva</t>
+    <t xml:space="preserve">No prueba</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo</t>
@@ -57,13 +57,19 @@
     <t xml:space="preserve">tiempo seg</t>
   </si>
   <si>
-    <t xml:space="preserve">promedio por prueva</t>
+    <t xml:space="preserve">promedio por prueba</t>
   </si>
   <si>
-    <t xml:space="preserve">total CPU</t>
+    <t xml:space="preserve">%total CPU</t>
   </si>
   <si>
     <t xml:space="preserve">Promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varianza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desviacion estandar</t>
   </si>
   <si>
     <t xml:space="preserve">20min 17s</t>
@@ -76,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">tiempo en seg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio por prueva</t>
   </si>
   <si>
     <t xml:space="preserve">promedio</t>
@@ -187,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,14 +220,70 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,12 +328,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,7 +367,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF8B8B8B"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -326,11 +395,11 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -344,12 +413,499 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Threads vs Tiempo MD5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafica MD5'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica MD5'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafica MD5'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica MD5'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>837.333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="33548355"/>
+        <c:axId val="4383027"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33548355"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4383027"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4383027"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tiempo en segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33548355"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Threads vs %CPU MD5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -379,19 +935,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -427,11 +988,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="16674703"/>
-        <c:axId val="1644531"/>
+        <c:axId val="7842969"/>
+        <c:axId val="72017778"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16674703"/>
+        <c:axId val="7842969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,11 +1006,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Threads</a:t>
@@ -470,10 +1037,11 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="8b8b8b"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -482,19 +1050,22 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644531"/>
+        <c:crossAx val="72017778"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1644531"/>
+        <c:axId val="72017778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,11 +1088,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Porcentage de CPU</a:t>
@@ -537,7 +1114,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -554,12 +1131,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16674703"/>
+        <c:crossAx val="7842969"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -587,6 +1167,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -607,12 +1190,40 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Threads vs Tiempo SHA-256</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -652,12 +1263,16 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -735,19 +1350,24 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -790,11 +1410,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83211426"/>
-        <c:axId val="99703248"/>
+        <c:axId val="81690187"/>
+        <c:axId val="11792009"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83211426"/>
+        <c:axId val="81690187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,11 +1428,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Threads</a:t>
@@ -833,10 +1459,11 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="8b8b8b"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -845,19 +1472,22 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99703248"/>
+        <c:crossAx val="11792009"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99703248"/>
+        <c:axId val="11792009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,11 +1510,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tiempo en segundos</a:t>
@@ -900,7 +1536,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -917,12 +1553,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83211426"/>
+        <c:crossAx val="81690187"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -950,6 +1589,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -970,12 +1612,40 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Threads vs %CPU SHA-256</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1005,19 +1675,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1053,11 +1728,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="14033316"/>
-        <c:axId val="47719646"/>
+        <c:axId val="69839669"/>
+        <c:axId val="24965684"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14033316"/>
+        <c:axId val="69839669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,11 +1746,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Threads</a:t>
@@ -1096,10 +1777,11 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="8b8b8b"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1108,19 +1790,22 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47719646"/>
+        <c:crossAx val="24965684"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47719646"/>
+        <c:axId val="24965684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,11 +1828,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Porcentage CPU</a:t>
@@ -1163,7 +1854,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1180,12 +1871,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14033316"/>
+        <c:crossAx val="69839669"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,6 +1907,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -1233,12 +1930,40 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Threads vs Tiempo SHA-512</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1278,12 +2003,16 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1361,19 +2090,24 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1416,11 +2150,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="46778427"/>
-        <c:axId val="78303408"/>
+        <c:axId val="98109102"/>
+        <c:axId val="64796642"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46778427"/>
+        <c:axId val="98109102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,11 +2168,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Threads</a:t>
@@ -1459,10 +2199,11 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="8b8b8b"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1471,19 +2212,22 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78303408"/>
+        <c:crossAx val="64796642"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78303408"/>
+        <c:axId val="64796642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,11 +2250,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tiempo en segundos</a:t>
@@ -1526,7 +2276,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1543,12 +2293,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46778427"/>
+        <c:crossAx val="98109102"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1576,6 +2329,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -1596,12 +2352,40 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-CO" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Threads vs %CPU SHA-512</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1631,19 +2415,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1679,11 +2468,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="85452758"/>
-        <c:axId val="61828371"/>
+        <c:axId val="45767134"/>
+        <c:axId val="84513187"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85452758"/>
+        <c:axId val="45767134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,11 +2486,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Threads</a:t>
@@ -1722,10 +2517,11 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="8b8b8b"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1734,19 +2530,22 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61828371"/>
+        <c:crossAx val="84513187"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61828371"/>
+        <c:axId val="84513187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,11 +2568,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Porcentage CPU</a:t>
@@ -1789,7 +2594,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1806,12 +2611,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85452758"/>
+        <c:crossAx val="45767134"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,402 +2647,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'grafica MD5'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'grafica MD5'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'grafica MD5'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tiempo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'grafica MD5'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1185</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>837.333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="63104683"/>
-        <c:axId val="41122355"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="63104683"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41122355"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="41122355"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="es-CO" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tiempo en segundos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63104683"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -2257,6 +2672,886 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63720" y="2628720"/>
+          <a:ext cx="10035360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1678320" y="27000"/>
+        <a:ext cx="5785920" cy="3798000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105840</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1669320" y="3890520"/>
+        <a:ext cx="5785920" cy="3734640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20880" y="2476440"/>
+          <a:ext cx="10035360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>128520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79560" y="2476440"/>
+          <a:ext cx="10035360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64080" y="2476440"/>
+          <a:ext cx="10098360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79560" y="2476440"/>
+          <a:ext cx="10067040" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1785240" y="0"/>
+        <a:ext cx="5785920" cy="3770280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213840</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1777320" y="3890520"/>
+        <a:ext cx="5785920" cy="3734640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>73800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73800" y="2476440"/>
+          <a:ext cx="11009880" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>REGULAR </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar relativamente bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>548280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64080" y="2666880"/>
+          <a:ext cx="10066680" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64080" y="2476440"/>
+          <a:ext cx="10098360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2266,18 +3561,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="4" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1661760" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1669320" y="36000"/>
+        <a:ext cx="5785920" cy="3798000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2296,18 +3591,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
+      <xdr:colOff>124920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="5" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1680840" y="3445200"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1688400" y="4032000"/>
+        <a:ext cx="5785920" cy="3744720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2320,131 +3615,385 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-64800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1670760" y="27000"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1661760" y="3331800"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-64800" y="2476440"/>
+          <a:ext cx="9537120" cy="242640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MALA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar alto (dispersion respecto a la media), luego </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>no podemos tener  certeza sobre una predicción.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>509400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1777680" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64080" y="2476440"/>
+          <a:ext cx="10098360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1769760" y="3331800"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64080" y="2476440"/>
+          <a:ext cx="10098360" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BUENA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="70ad47"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>194400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="2476440"/>
+          <a:ext cx="11009880" cy="230040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Calidad de los datos: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>REGULAR </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hay un valor de desviacion estandar relativamente bajo (dispersion respecto a la media), permitiendo hacer predicciones con un gran margen de seguridad. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-CO" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2455,31 +4004,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2544,7 +4094,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2606,7 +4156,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2668,21 +4218,23 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2408</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>2268</v>
       </c>
@@ -2695,7 +4247,8 @@
         <v>26.3051656920078</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>2221</v>
       </c>
@@ -2704,8 +4257,8 @@
         <v>26.3388888888889</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -2717,9 +4270,24 @@
         <v>26.2555555555556</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.023788429752066</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.154234982257807</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -2731,6 +4299,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2741,21 +4310,21 @@
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2764,7 +4333,7 @@
         <v>2613.33333333333</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2773,7 +4342,7 @@
         <v>1377.33333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
@@ -2782,7 +4351,7 @@
         <v>805.333333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
@@ -2791,15 +4360,15 @@
         <v>977.333333333333</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -2808,7 +4377,7 @@
         <v>26.4269841269841</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2</v>
       </c>
@@ -2817,7 +4386,7 @@
         <v>53.1212121212121</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>4</v>
       </c>
@@ -2826,7 +4395,7 @@
         <v>98.4888888888889</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>8</v>
       </c>
@@ -2852,37 +4421,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>28.4</v>
@@ -2968,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>26.8</v>
@@ -3057,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>26.8</v>
@@ -3141,21 +4711,23 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3169</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>3240</v>
       </c>
@@ -3168,7 +4740,8 @@
         <v>26.6528015194682</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>3263</v>
       </c>
@@ -3177,9 +4750,9 @@
         <v>26.5407407407407</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -3187,7 +4760,25 @@
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:AD4)</f>
-        <v>26.6407407407407</v>
+        <v>26.6407407407408</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:AD4)/COUNT(D2:AD4)</f>
+        <v>0.0962484374999998</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.310239322942788</v>
       </c>
     </row>
   </sheetData>
@@ -3201,6 +4792,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3209,37 +4801,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>53.4</v>
@@ -3289,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>53.5</v>
@@ -3339,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>53.7</v>
@@ -3384,21 +4977,23 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1705</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>1710</v>
       </c>
@@ -3411,7 +5006,8 @@
         <v>53.3690476190476</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>1722</v>
       </c>
@@ -3420,9 +5016,9 @@
         <v>53.3428571428571</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -3431,6 +5027,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:AD4)</f>
         <v>53.3928571428571</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.0216609977324262</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.14717675676691</v>
       </c>
     </row>
   </sheetData>
@@ -3444,6 +5058,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3452,36 +5067,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>98</v>
@@ -3516,7 +5132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>97.8</v>
@@ -3551,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>98.2</v>
@@ -3578,21 +5194,23 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1083</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>1098</v>
       </c>
@@ -3605,7 +5223,8 @@
         <v>98.1203703703704</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>1076</v>
       </c>
@@ -3614,9 +5233,9 @@
         <v>98.0333333333333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -3625,6 +5244,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:AD4)</f>
         <v>98.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.0189940828402369</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.137819022055146</v>
       </c>
     </row>
   </sheetData>
@@ -3638,6 +5275,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3646,36 +5284,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>96</v>
@@ -3713,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>96.7</v>
@@ -3751,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>96.6</v>
@@ -3784,21 +5423,23 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1286</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>1287</v>
       </c>
@@ -3811,7 +5452,8 @@
         <v>96.3833333333333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>1278</v>
       </c>
@@ -3820,9 +5462,9 @@
         <v>96.63</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -3831,6 +5473,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:AD4)</f>
         <v>96.52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.0767222222222217</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.276987765473895</v>
       </c>
     </row>
   </sheetData>
@@ -3844,6 +5504,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3855,20 +5516,20 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -3877,7 +5538,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -3886,7 +5547,7 @@
         <v>1712.33333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
@@ -3895,7 +5556,7 @@
         <v>1085.66666666667</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
@@ -3904,15 +5565,15 @@
         <v>1283.66666666667</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -3921,7 +5582,7 @@
         <v>26.6528015194682</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2</v>
       </c>
@@ -3930,7 +5591,7 @@
         <v>53.3690476190476</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>4</v>
       </c>
@@ -3939,7 +5600,7 @@
         <v>98.1203703703704</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>8</v>
       </c>
@@ -3965,38 +5626,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>53.9</v>
@@ -4029,12 +5692,12 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>52.6</v>
@@ -4067,12 +5730,12 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>52.5</v>
@@ -4102,21 +5765,23 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1217</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>1212</v>
       </c>
@@ -4129,7 +5794,8 @@
         <v>52.7392592592593</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>1126</v>
       </c>
@@ -4138,9 +5804,9 @@
         <v>52.42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -4149,6 +5815,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:U4)</f>
         <v>52.3777777777778</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.271462544589774</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.521020675779545</v>
       </c>
     </row>
   </sheetData>
@@ -4162,6 +5846,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4170,37 +5855,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>98.6</v>
@@ -4223,7 +5909,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>98</v>
@@ -4246,7 +5932,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>98.4</v>
@@ -4264,16 +5950,17 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -4288,7 +5975,8 @@
         <v>98.48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>735</v>
       </c>
@@ -4297,7 +5985,8 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
       <c r="B9" s="0" t="n">
         <v>685</v>
       </c>
@@ -4307,12 +5996,30 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">AVERAGE(B7:B9)</f>
         <v>701</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">DEVSQ(D3:V5)/COUNT(D3:V5)</f>
+        <v>0.0268999999999996</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">SQRT(B11)</f>
+        <v>0.164012194668566</v>
       </c>
     </row>
   </sheetData>
@@ -4326,6 +6033,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4334,36 +6042,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>96.1</v>
@@ -4392,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>96.8</v>
@@ -4418,7 +6127,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>96.5</v>
@@ -4439,21 +6148,23 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>841</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>837</v>
       </c>
@@ -4466,7 +6177,8 @@
         <v>96.6388888888889</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>834</v>
       </c>
@@ -4475,9 +6187,9 @@
         <v>96.8166666666667</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -4486,6 +6198,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:I4)</f>
         <v>96.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.0360110803324101</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.189765856603368</v>
       </c>
     </row>
   </sheetData>
@@ -4499,6 +6229,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4507,23 +6238,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -4532,7 +6263,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -4541,7 +6272,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
@@ -4550,7 +6281,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
@@ -4559,15 +6290,15 @@
         <v>837.333333333333</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -4576,7 +6307,7 @@
         <v>26.3051656920078</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2</v>
       </c>
@@ -4585,7 +6316,7 @@
         <v>52.7392592592593</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>4</v>
       </c>
@@ -4594,7 +6325,7 @@
         <v>98.48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>8</v>
       </c>
@@ -4603,7 +6334,6 @@
         <v>96.6388888888889</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4621,36 +6351,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>26.7</v>
@@ -4721,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>26.7</v>
@@ -4792,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>28.3</v>
@@ -4858,21 +6589,23 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2603</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>2603</v>
       </c>
@@ -4885,7 +6618,8 @@
         <v>26.4269841269841</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>2634</v>
       </c>
@@ -4894,9 +6628,9 @@
         <v>26.5285714285714</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -4905,6 +6639,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:X4)</f>
         <v>26.4238095238095</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:X4)/COUNT(D2:X4)</f>
+        <v>1.78990677752583</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>1.33787397669804</v>
       </c>
     </row>
   </sheetData>
@@ -4918,6 +6670,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4926,37 +6679,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>53.4</v>
@@ -4997,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>53.2</v>
@@ -5038,7 +6792,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>53.2</v>
@@ -5074,21 +6828,23 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>1423</v>
       </c>
@@ -5101,7 +6857,8 @@
         <v>53.1212121212121</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>1344</v>
       </c>
@@ -5110,9 +6867,9 @@
         <v>53.0909090909091</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -5121,6 +6878,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:X4)</f>
         <v>53.0909090909091</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.025307621671258</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.159083693920081</v>
       </c>
     </row>
   </sheetData>
@@ -5134,6 +6909,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5142,37 +6918,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>98.6</v>
@@ -5198,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>98.5</v>
@@ -5224,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>98.3</v>
@@ -5245,21 +7022,23 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>802</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>804</v>
       </c>
@@ -5272,7 +7051,8 @@
         <v>98.4888888888889</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>810</v>
       </c>
@@ -5281,9 +7061,9 @@
         <v>98.45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -5292,6 +7072,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:X4)</f>
         <v>98.3666666666667</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.0165432098765429</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.128620410031001</v>
       </c>
     </row>
   </sheetData>
@@ -5305,6 +7103,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5313,36 +7112,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>96.7</v>
@@ -5374,7 +7174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>96.8</v>
@@ -5406,7 +7206,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>95.9</v>
@@ -5433,21 +7233,23 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>974</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
       <c r="B7" s="0" t="n">
         <v>977</v>
       </c>
@@ -5460,7 +7262,8 @@
         <v>96.45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
       <c r="B8" s="0" t="n">
         <v>981</v>
       </c>
@@ -5469,9 +7272,9 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">AVERAGE(B6:B8)</f>
@@ -5480,6 +7283,24 @@
       <c r="D9" s="0" t="n">
         <f aca="false">AVERAGE(D4:X4)</f>
         <v>95.875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">DEVSQ(D2:V4)/COUNT(D2:V4)</f>
+        <v>0.169166666666665</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SQRT(B10)</f>
+        <v>0.4112987559751</v>
       </c>
     </row>
   </sheetData>
@@ -5493,5 +7314,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>